--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H2">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I2">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J2">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.890361207483</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N2">
-        <v>127.890361207483</v>
+        <v>418.183891</v>
       </c>
       <c r="O2">
-        <v>0.9283285166052262</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P2">
-        <v>0.9283285166052262</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q2">
-        <v>294.5672428109538</v>
+        <v>371.2515310969609</v>
       </c>
       <c r="R2">
-        <v>294.5672428109538</v>
+        <v>3341.263779872649</v>
       </c>
       <c r="S2">
-        <v>0.3362306470621442</v>
+        <v>0.3493710961379209</v>
       </c>
       <c r="T2">
-        <v>0.3362306470621442</v>
+        <v>0.349371096137921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H3">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I3">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J3">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.50184202892109</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
-        <v>3.50184202892109</v>
+        <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.02541911513425251</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P3">
-        <v>0.02541911513425251</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q3">
-        <v>8.06572083681351</v>
+        <v>0.133802181807</v>
       </c>
       <c r="R3">
-        <v>8.06572083681351</v>
+        <v>1.204219636263</v>
       </c>
       <c r="S3">
-        <v>0.009206531283333787</v>
+        <v>0.0001259162885751117</v>
       </c>
       <c r="T3">
-        <v>0.009206531283333787</v>
+        <v>0.0001259162885751117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H4">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I4">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J4">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.14098823574429</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N4">
-        <v>5.14098823574429</v>
+        <v>12.662099</v>
       </c>
       <c r="O4">
-        <v>0.03731732350830338</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P4">
-        <v>0.03731732350830338</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q4">
-        <v>11.84113263602338</v>
+        <v>11.241044291329</v>
       </c>
       <c r="R4">
-        <v>11.84113263602338</v>
+        <v>101.169398621961</v>
       </c>
       <c r="S4">
-        <v>0.01351593493616651</v>
+        <v>0.01057853136441565</v>
       </c>
       <c r="T4">
-        <v>0.01351593493616651</v>
+        <v>0.01057853136441565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H5">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I5">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J5">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806379720358944</v>
+        <v>6.099343</v>
       </c>
       <c r="N5">
-        <v>0.806379720358944</v>
+        <v>18.298029</v>
       </c>
       <c r="O5">
-        <v>0.005853336268296935</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P5">
-        <v>0.005853336268296935</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q5">
-        <v>1.857317851338618</v>
+        <v>16.244459503359</v>
       </c>
       <c r="R5">
-        <v>1.857317851338618</v>
+        <v>146.200135530231</v>
       </c>
       <c r="S5">
-        <v>0.002120015711850336</v>
+        <v>0.01528706051686115</v>
       </c>
       <c r="T5">
-        <v>0.002120015711850336</v>
+        <v>0.01528706051686115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H6">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I6">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J6">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.424548857538132</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N6">
-        <v>0.424548857538132</v>
+        <v>2.483471</v>
       </c>
       <c r="O6">
-        <v>0.00308170848392097</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P6">
-        <v>0.00308170848392097</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q6">
-        <v>0.977854665690245</v>
+        <v>2.204753533141</v>
       </c>
       <c r="R6">
-        <v>0.977854665690245</v>
+        <v>19.842781798269</v>
       </c>
       <c r="S6">
-        <v>0.001116161810255236</v>
+        <v>0.002074812072320449</v>
       </c>
       <c r="T6">
-        <v>0.001116161810255236</v>
+        <v>0.002074812072320449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,55 +844,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.15585312321077</v>
+        <v>2.663313</v>
       </c>
       <c r="H7">
-        <v>3.15585312321077</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I7">
-        <v>0.4962559783441747</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J7">
-        <v>0.4962559783441747</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.890361207483</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N7">
-        <v>127.890361207483</v>
+        <v>2.385842</v>
       </c>
       <c r="O7">
-        <v>0.9283285166052262</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P7">
-        <v>0.9283285166052262</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q7">
-        <v>403.6031958451887</v>
+        <v>2.118081338182</v>
       </c>
       <c r="R7">
-        <v>403.6031958451887</v>
+        <v>19.062732043638</v>
       </c>
       <c r="S7">
-        <v>0.4606885762327229</v>
+        <v>0.001993248072656844</v>
       </c>
       <c r="T7">
-        <v>0.4606885762327229</v>
+        <v>0.001993248072656844</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H8">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I8">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J8">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.50184202892109</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N8">
-        <v>3.50184202892109</v>
+        <v>418.183891</v>
       </c>
       <c r="O8">
-        <v>0.02541911513425251</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P8">
-        <v>0.02541911513425251</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q8">
-        <v>11.05129910396136</v>
+        <v>443.0841396759504</v>
       </c>
       <c r="R8">
-        <v>11.05129910396136</v>
+        <v>3987.757257083554</v>
       </c>
       <c r="S8">
-        <v>0.0126143878495917</v>
+        <v>0.4169701094632918</v>
       </c>
       <c r="T8">
-        <v>0.0126143878495917</v>
+        <v>0.4169701094632918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H9">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I9">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J9">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.14098823574429</v>
+        <v>0.050239</v>
       </c>
       <c r="N9">
-        <v>5.14098823574429</v>
+        <v>0.150717</v>
       </c>
       <c r="O9">
-        <v>0.03731732350830338</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P9">
-        <v>0.03731732350830338</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q9">
-        <v>16.22420378016344</v>
+        <v>0.1596912595553333</v>
       </c>
       <c r="R9">
-        <v>16.22420378016344</v>
+        <v>1.437221335998</v>
       </c>
       <c r="S9">
-        <v>0.01851894488679916</v>
+        <v>0.0001502795429008502</v>
       </c>
       <c r="T9">
-        <v>0.01851894488679916</v>
+        <v>0.0001502795429008502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H10">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I10">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J10">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.806379720358944</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N10">
-        <v>0.806379720358944</v>
+        <v>12.662099</v>
       </c>
       <c r="O10">
-        <v>0.005853336268296935</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P10">
-        <v>0.005853336268296935</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q10">
-        <v>2.544815958988601</v>
+        <v>13.41604820905622</v>
       </c>
       <c r="R10">
-        <v>2.544815958988601</v>
+        <v>120.744433881506</v>
       </c>
       <c r="S10">
-        <v>0.002904753116401136</v>
+        <v>0.01262534717308142</v>
       </c>
       <c r="T10">
-        <v>0.002904753116401136</v>
+        <v>0.01262534717308142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H11">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I11">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J11">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.424548857538132</v>
+        <v>6.099343</v>
       </c>
       <c r="N11">
-        <v>0.424548857538132</v>
+        <v>18.298029</v>
       </c>
       <c r="O11">
-        <v>0.00308170848392097</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P11">
-        <v>0.00308170848392097</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q11">
-        <v>1.339813838017278</v>
+        <v>19.38756277254734</v>
       </c>
       <c r="R11">
-        <v>1.339813838017278</v>
+        <v>174.488064952926</v>
       </c>
       <c r="S11">
-        <v>0.001529316258659744</v>
+        <v>0.01824491884861363</v>
       </c>
       <c r="T11">
-        <v>0.001529316258659744</v>
+        <v>0.01824491884861363</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1154,117 +1154,117 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.900192559806218</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H12">
-        <v>0.900192559806218</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I12">
-        <v>0.1415547308520753</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J12">
-        <v>0.1415547308520753</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.890361207483</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N12">
-        <v>127.890361207483</v>
+        <v>2.483471</v>
       </c>
       <c r="O12">
-        <v>0.9283285166052262</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P12">
-        <v>0.9283285166052262</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q12">
-        <v>115.125951629906</v>
+        <v>2.631346245341556</v>
       </c>
       <c r="R12">
-        <v>115.125951629906</v>
+        <v>23.682116208074</v>
       </c>
       <c r="S12">
-        <v>0.1314092933103591</v>
+        <v>0.002476262708835216</v>
       </c>
       <c r="T12">
-        <v>0.1314092933103591</v>
+        <v>0.002476262708835216</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.900192559806218</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H13">
-        <v>0.900192559806218</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I13">
-        <v>0.1415547308520753</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J13">
-        <v>0.1415547308520753</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.50184202892109</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N13">
-        <v>3.50184202892109</v>
+        <v>2.385842</v>
       </c>
       <c r="O13">
-        <v>0.02541911513425251</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P13">
-        <v>0.02541911513425251</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q13">
-        <v>3.152332140051476</v>
+        <v>2.527904045860889</v>
       </c>
       <c r="R13">
-        <v>3.152332140051476</v>
+        <v>22.751136412748</v>
       </c>
       <c r="S13">
-        <v>0.003598196001327028</v>
+        <v>0.002378917077659787</v>
       </c>
       <c r="T13">
-        <v>0.003598196001327028</v>
+        <v>0.002378917077659787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.900192559806218</v>
+        <v>1.177290666666667</v>
       </c>
       <c r="H14">
-        <v>0.900192559806218</v>
+        <v>3.531872</v>
       </c>
       <c r="I14">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="J14">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.14098823574429</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N14">
-        <v>5.14098823574429</v>
+        <v>418.183891</v>
       </c>
       <c r="O14">
-        <v>0.03731732350830338</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P14">
-        <v>0.03731732350830338</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q14">
-        <v>4.627879359868305</v>
+        <v>164.1079972748835</v>
       </c>
       <c r="R14">
-        <v>4.627879359868305</v>
+        <v>1476.971975473952</v>
       </c>
       <c r="S14">
-        <v>0.005282443685337706</v>
+        <v>0.1544359715460695</v>
       </c>
       <c r="T14">
-        <v>0.005282443685337706</v>
+        <v>0.1544359715460695</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.900192559806218</v>
+        <v>1.177290666666667</v>
       </c>
       <c r="H15">
-        <v>0.900192559806218</v>
+        <v>3.531872</v>
       </c>
       <c r="I15">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="J15">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.806379720358944</v>
+        <v>0.050239</v>
       </c>
       <c r="N15">
-        <v>0.806379720358944</v>
+        <v>0.150717</v>
       </c>
       <c r="O15">
-        <v>0.005853336268296935</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P15">
-        <v>0.005853336268296935</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q15">
-        <v>0.7258970246457401</v>
+        <v>0.05914590580266667</v>
       </c>
       <c r="R15">
-        <v>0.7258970246457401</v>
+        <v>0.532313152224</v>
       </c>
       <c r="S15">
-        <v>0.0008285674400454634</v>
+        <v>5.566002618572642E-05</v>
       </c>
       <c r="T15">
-        <v>0.0008285674400454634</v>
+        <v>5.566002618572642E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,241 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.531872</v>
+      </c>
+      <c r="I16">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J16">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.220699666666667</v>
+      </c>
+      <c r="N16">
+        <v>12.662099</v>
+      </c>
+      <c r="O16">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="P16">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="Q16">
+        <v>4.968990324369778</v>
+      </c>
+      <c r="R16">
+        <v>44.720912919328</v>
+      </c>
+      <c r="S16">
+        <v>0.004676133162856614</v>
+      </c>
+      <c r="T16">
+        <v>0.004676133162856614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.900192559806218</v>
-      </c>
-      <c r="H16">
-        <v>0.900192559806218</v>
-      </c>
-      <c r="I16">
-        <v>0.1415547308520753</v>
-      </c>
-      <c r="J16">
-        <v>0.1415547308520753</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.424548857538132</v>
-      </c>
-      <c r="N16">
-        <v>0.424548857538132</v>
-      </c>
-      <c r="O16">
-        <v>0.00308170848392097</v>
-      </c>
-      <c r="P16">
-        <v>0.00308170848392097</v>
-      </c>
-      <c r="Q16">
-        <v>0.3821757228300564</v>
-      </c>
-      <c r="R16">
-        <v>0.3821757228300564</v>
-      </c>
-      <c r="S16">
-        <v>0.0004362304150059898</v>
-      </c>
-      <c r="T16">
-        <v>0.0004362304150059898</v>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.531872</v>
+      </c>
+      <c r="I17">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J17">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.099343</v>
+      </c>
+      <c r="N17">
+        <v>18.298029</v>
+      </c>
+      <c r="O17">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="P17">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="Q17">
+        <v>7.180699586698667</v>
+      </c>
+      <c r="R17">
+        <v>64.626296280288</v>
+      </c>
+      <c r="S17">
+        <v>0.006757491014863496</v>
+      </c>
+      <c r="T17">
+        <v>0.006757491014863495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.531872</v>
+      </c>
+      <c r="I18">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J18">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8278236666666666</v>
+      </c>
+      <c r="N18">
+        <v>2.483471</v>
+      </c>
+      <c r="O18">
+        <v>0.005468224544563193</v>
+      </c>
+      <c r="P18">
+        <v>0.005468224544563191</v>
+      </c>
+      <c r="Q18">
+        <v>0.9745890764124444</v>
+      </c>
+      <c r="R18">
+        <v>8.771301687712</v>
+      </c>
+      <c r="S18">
+        <v>0.0009171497634075267</v>
+      </c>
+      <c r="T18">
+        <v>0.0009171497634075265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.177290666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.531872</v>
+      </c>
+      <c r="I19">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="J19">
+        <v>0.1677235007328671</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7952806666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.385842</v>
+      </c>
+      <c r="O19">
+        <v>0.005253260369800871</v>
+      </c>
+      <c r="P19">
+        <v>0.00525326036980087</v>
+      </c>
+      <c r="Q19">
+        <v>0.9362765062471112</v>
+      </c>
+      <c r="R19">
+        <v>8.426488556224001</v>
+      </c>
+      <c r="S19">
+        <v>0.0008810952194842381</v>
+      </c>
+      <c r="T19">
+        <v>0.000881095219484238</v>
       </c>
     </row>
   </sheetData>
